--- a/examples/biochemical_model/schema_and_data.xlsx
+++ b/examples/biochemical_model/schema_and_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21990" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="!!Reaction" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compound'!$A$2:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Reaction'!$A$2:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -34,9 +34,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Select a value from "!!Model:2" or blank.</t>
         </r>
@@ -47,9 +46,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Identifier
 Enter a string.
@@ -63,9 +61,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Name
 Enter a string.
@@ -78,9 +75,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
@@ -92,9 +88,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Select "True" or "False".</t>
         </r>
@@ -115,9 +110,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Identifier
 Enter a string.
@@ -131,9 +125,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Name
 Enter a string.
@@ -156,9 +149,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Select a value from "!!Model:2" or blank.</t>
         </r>
@@ -169,9 +161,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Identifier
 Enter a string.
@@ -185,9 +176,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Name
 Enter a string.
@@ -200,9 +190,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
@@ -214,9 +203,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
@@ -228,9 +216,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Select "True" or "False".</t>
         </r>
@@ -241,9 +228,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
@@ -255,19 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
-  <si>
-    <t>'!!_Schema'!A1</t>
-  </si>
-  <si>
-    <t>'!!Compound'!A1</t>
-  </si>
-  <si>
-    <t>'!!Model'!A1</t>
-  </si>
-  <si>
-    <t>'!!Reaction'!A1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
   <si>
     <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-12 00:22:57'</t>
   </si>
@@ -398,7 +372,7 @@
     <t>D-Fructose 6-phosphate</t>
   </si>
   <si>
-    <t>kegg.compound::C00085</t>
+    <t>kegg.compound:C00085</t>
   </si>
   <si>
     <t>D_Glucose</t>
@@ -407,7 +381,7 @@
     <t>D-Glucose</t>
   </si>
   <si>
-    <t>kegg.compound::C00031</t>
+    <t>kegg.compound:C00031</t>
   </si>
   <si>
     <t>D_Glucose_6_phosphate</t>
@@ -416,19 +390,19 @@
     <t>D-Glucose 6-phosphate</t>
   </si>
   <si>
-    <t>kegg.compound::C00092</t>
+    <t>kegg.compound:C00092</t>
   </si>
   <si>
     <t>Phosphoenolpyruvate</t>
   </si>
   <si>
-    <t>kegg.compound::C00074</t>
+    <t>kegg.compound:C00074</t>
   </si>
   <si>
     <t>Pyruvate</t>
   </si>
   <si>
-    <t>kegg.compound::C00022</t>
+    <t>kegg.compound:C00022</t>
   </si>
   <si>
     <t>!!ObjTables type='Data' tableFormat='column' id='Model' name='Model' description='Model' date='2020-03-12 00:22:57' objTablesVersion='0.0.8'</t>
@@ -449,7 +423,7 @@
     <t>PGI_R02740</t>
   </si>
   <si>
-    <t>kegg.reaction::R02740</t>
+    <t>kegg.reaction:R02740</t>
   </si>
   <si>
     <t>-1.0 D_Glucose_6_phosphate; 1.0 D_Fructose_6_phosphate</t>
@@ -461,7 +435,7 @@
     <t>PTS_RPTSsy</t>
   </si>
   <si>
-    <t>kegg.reaction::RPTSsy</t>
+    <t>kegg.reaction:RPTSsy</t>
   </si>
   <si>
     <t>-1.0 D_Glucose; -1.0 Phosphoenolpyruvate; 1.0 Pyruvate; 1.0 D_Glucose_6_phosphate</t>
@@ -474,35 +448,191 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,8 +651,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -530,29 +846,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -835,803 +1444,825 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7133333333333" customWidth="1"/>
+    <col min="4" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:C7"/>
+  <sheetProtection sheet="1" insertRows="0" deleteRows="0" objects="1" scenarios="1"/>
+  <autoFilter ref="A3:C7">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A4" location="'!!_Schema'!A1" tooltip="Click to view schema" display="'!!_Schema'!A1"/>
-    <hyperlink ref="A5" location="'!!Compound'!A1" tooltip="Click to view compound" display="'!!Compound'!A1"/>
-    <hyperlink ref="A6" location="'!!Model'!A1" tooltip="Click to view model" display="'!!Model'!A1"/>
-    <hyperlink ref="A7" location="'!!Reaction'!A1" tooltip="Click to view reaction" display="'!!Reaction'!A1"/>
+    <hyperlink ref="A4" location="'!!_Schema'!A1" display="Schema" tooltip="Click to view schema"/>
+    <hyperlink ref="A5" location="'!!Compound'!A1" display="Compound" tooltip="Click to view compound"/>
+    <hyperlink ref="A6" location="'!!Model'!A1" display="Model" tooltip="Click to view model"/>
+    <hyperlink ref="A7" location="'!!Reaction'!A1" display="Reaction" tooltip="Click to view reaction"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="7" width="15.7133333333333" customWidth="1"/>
+    <col min="8" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G19"/>
+  <sheetProtection sheet="1" insertRows="0" deleteRows="0" objects="1" scenarios="1"/>
+  <autoFilter ref="A2:G19">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A3" location="'!!Compound'!A1" tooltip="Click to view compound" display="'!!Compound'!A1"/>
-    <hyperlink ref="A9" location="'!!Model'!A1" tooltip="Click to view model" display="'!!Model'!A1"/>
-    <hyperlink ref="A12" location="'!!Reaction'!A1" tooltip="Click to view reaction" display="'!!Reaction'!A1"/>
+    <hyperlink ref="A3" location="'!!Compound'!A1" display="Compound" tooltip="Click to view compound"/>
+    <hyperlink ref="A9" location="'!!Model'!A1" display="Model" tooltip="Click to view model"/>
+    <hyperlink ref="A12" location="'!!Reaction'!A1" display="Reaction" tooltip="Click to view reaction"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="5" width="15.7133333333333" customWidth="1"/>
+    <col min="6" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="4" t="b">
+      <c r="E7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:E7"/>
+  <sheetProtection sheet="1" insertRows="0" deleteRows="0" objects="1" scenarios="1"/>
+  <autoFilter ref="A2:E7">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="5">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;!!Model:2&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;!!Model:2&quot; or blank." sqref="A3:A7">
-      <formula1>'!!Model'!$B$2:$XFD$2</formula1>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D7" errorStyle="warning">
+      <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." sqref="B3:B7">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C7" errorStyle="warning">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsConstant" error="Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsConstant" prompt="Select &quot;True&quot; or &quot;False&quot;." sqref="E3:E7" errorStyle="warning">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." sqref="B3:B7" errorStyle="warning">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C7">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D7">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsConstant" error="Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsConstant" prompt="Select &quot;True&quot; or &quot;False&quot;." sqref="E3:E7">
-      <formula1>"True,False"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;!!Model:2&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;!!Model:2&quot; or blank." sqref="A3:A7" errorStyle="warning">
+      <formula1>'!!Model'!$B$2:$XFD$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7133333333333" customWidth="1"/>
+    <col min="3" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4"/>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection sheet="1" insertRows="0" deleteRows="0" objects="1" scenarios="1"/>
   <dataValidations count="2">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." sqref="B2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3" errorStyle="warning">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." sqref="B2" errorStyle="warning">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3">
-      <formula1>255</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="7" width="15.7133333333333" customWidth="1"/>
+    <col min="8" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="4" t="b">
+      <c r="F4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G4"/>
+  <sheetProtection sheet="1" insertRows="0" deleteRows="0" objects="1" scenarios="1"/>
+  <autoFilter ref="A2:G4">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="7">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;!!Model:2&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;!!Model:2&quot; or blank." sqref="A3:A4">
-      <formula1>'!!Model'!$B$2:$XFD$2</formula1>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Gene" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Gene" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G4" errorStyle="warning">
+      <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." sqref="B3:B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsReversible" error="Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsReversible" prompt="Select &quot;True&quot; or &quot;False&quot;." sqref="F3:F4" errorStyle="warning">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4" errorStyle="warning">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value must be unique." sqref="B3:B4" errorStyle="warning">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Equation" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Equation" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3:E4" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Equation" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Equation" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3:E4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsReversible" error="Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsReversible" prompt="Select &quot;True&quot; or &quot;False&quot;." sqref="F3:F4">
-      <formula1>"True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Gene" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Gene" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G4">
-      <formula1>255</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;!!Model:2&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;!!Model:2&quot; or blank." sqref="A3:A4" errorStyle="warning">
+      <formula1>'!!Model'!$B$2:$XFD$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/examples/biochemical_model/schema_and_data.xlsx
+++ b/examples/biochemical_model/schema_and_data.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -269,10 +269,10 @@
     <t>'!!Reaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.9' date='2020-04-27 01:05:03'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:05:03' objTablesVersion='0.0.9'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-05-29 00:18:55'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-29 00:18:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -299,7 +299,7 @@
     <t>Reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-04-27 01:05:03' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-29 00:18:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -332,7 +332,10 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Slug('^(?!(^|\\b)(\\d+(\\.\\d*)?(\\b|$))|(\\.\\d+$)|(0[x][0-9a-f]+(\\b|$))|([0-9]+e[0-9]+(\\b|$)))[a-z0-9_]+$', flags=2, primary=True, unique=True)</t>
+    <t>Slug(r'^(?!(^|\b)(\d+(\.\d*)?(\b|$))|(\.\d+$)|(0[x][0-9a-f]+(\b|$))|([0-9]+e[0-9]+(\b|$)))[a-z0-9_]+$', flags=2, primary=True, unique=True)</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Identifier</t>
@@ -344,12 +347,18 @@
     <t>String</t>
   </si>
   <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
     <t>is_constant</t>
   </si>
   <si>
     <t>Boolean</t>
   </si>
   <si>
+    <t>IsConstant</t>
+  </si>
+  <si>
     <t>model</t>
   </si>
   <si>
@@ -368,16 +377,25 @@
     <t>equation</t>
   </si>
   <si>
+    <t>Equation</t>
+  </si>
+  <si>
     <t>gene</t>
   </si>
   <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t>is_reversible</t>
   </si>
   <si>
+    <t>IsReversible</t>
+  </si>
+  <si>
     <t>ManyToOne('Model', related_name='reactions')</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-04-27 01:05:03' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-03-10 22:56:34' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Model</t>
@@ -434,10 +452,10 @@
     <t>kegg.compound:C00022</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-04-27 01:05:03' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-04-27 01:05:03' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-03-10 22:56:35' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-03-10 22:56:35' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Equation</t>
@@ -1020,15 +1038,17 @@
       <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
@@ -1037,15 +1057,17 @@
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -1054,15 +1076,17 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
@@ -1071,15 +1095,17 @@
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -1088,12 +1114,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
@@ -1105,7 +1133,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -1130,15 +1158,17 @@
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -1147,12 +1177,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
@@ -1178,7 +1210,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -1187,15 +1219,17 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1204,9 +1238,11 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
@@ -1223,15 +1259,17 @@
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>24</v>
@@ -1240,15 +1278,17 @@
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -1257,15 +1297,17 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.01" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>24</v>
@@ -1274,15 +1316,17 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.01" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>24</v>
@@ -1291,12 +1335,14 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1374,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1337,33 +1383,33 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.01" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>1</v>
@@ -1371,16 +1417,16 @@
     </row>
     <row r="4" spans="1:5" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
@@ -1388,16 +1434,16 @@
     </row>
     <row r="5" spans="1:5" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>1</v>
@@ -1405,16 +1451,16 @@
     </row>
     <row r="6" spans="1:5" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>
@@ -1422,16 +1468,16 @@
     </row>
     <row r="7" spans="1:5" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>1</v>
@@ -1482,16 +1528,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.01" customHeight="1"/>
@@ -1528,7 +1574,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1538,62 +1584,62 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/examples/biochemical_model/schema_and_data.xlsx
+++ b/examples/biochemical_model/schema_and_data.xlsx
@@ -23,237 +23,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select a value from "!!Model:2" or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identifier
-Enter a string.
-Value must be between 1 and 90 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name
-Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select "True" or "False".</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identifier
-Enter a string.
-Value must be between 1 and 90 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name
-Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select a value from "!!Model:2" or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identifier
-Enter a string.
-Value must be between 1 and 90 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name
-Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select "True" or "False".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
   <si>
@@ -269,10 +38,10 @@
     <t>'!!Reaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-05-29 00:18:55'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-29 00:18:55' objTablesVersion='1.0.0'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-07-07 21:29:38'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-07-07 21:29:38' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -299,7 +68,7 @@
     <t>Reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-29 00:18:55' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-07-07 21:29:38' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -395,7 +164,7 @@
     <t>ManyToOne('Model', related_name='reactions')</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-03-10 22:56:34' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-03-10 22:56:34' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Model</t>
@@ -452,10 +221,10 @@
     <t>kegg.compound:C00022</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-03-10 22:56:35' objTablesVersion='1.0.0'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-03-10 22:56:35' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-03-10 22:56:35' objTablesVersion='1.0.1'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-03-10 22:56:35' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Equation</t>
@@ -495,19 +264,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -555,16 +318,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -876,69 +638,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
     </row>
@@ -971,377 +733,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1373,113 +1135,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="E3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="E4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="4" t="b">
+      <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="4" t="b">
+      <c r="E7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1505,13 +1267,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1527,20 +1288,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.01" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <dataValidations count="2">
@@ -1553,13 +1313,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1572,73 +1331,73 @@
     <col min="7" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.01" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.01" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="E3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" ht="15.01" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="E4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1670,6 +1429,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>